--- a/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H2">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I2">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J2">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.28525461605507</v>
+        <v>0.138973</v>
       </c>
       <c r="N2">
-        <v>7.28525461605507</v>
+        <v>0.416919</v>
       </c>
       <c r="O2">
-        <v>0.4907366137659186</v>
+        <v>0.008729058803286966</v>
       </c>
       <c r="P2">
-        <v>0.4907366137659186</v>
+        <v>0.0104128089745981</v>
       </c>
       <c r="Q2">
-        <v>6.356996345818047</v>
+        <v>0.01595484158933333</v>
       </c>
       <c r="R2">
-        <v>6.356996345818047</v>
+        <v>0.143593574304</v>
       </c>
       <c r="S2">
-        <v>0.006516481658454617</v>
+        <v>1.280969856415554E-05</v>
       </c>
       <c r="T2">
-        <v>0.006516481658454617</v>
+        <v>1.536823083239627E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.872583963202693</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H3">
-        <v>0.872583963202693</v>
+        <v>0.344416</v>
       </c>
       <c r="I3">
-        <v>0.0132789799571853</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J3">
-        <v>0.0132789799571853</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.56029473097233</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N3">
-        <v>7.56029473097233</v>
+        <v>24.145096</v>
       </c>
       <c r="O3">
-        <v>0.5092633862340814</v>
+        <v>0.5055273633367848</v>
       </c>
       <c r="P3">
-        <v>0.5092633862340814</v>
+        <v>0.6030386533627221</v>
       </c>
       <c r="Q3">
-        <v>6.596991939332273</v>
+        <v>0.9239952648817779</v>
       </c>
       <c r="R3">
-        <v>6.596991939332273</v>
+        <v>8.315957383936</v>
       </c>
       <c r="S3">
-        <v>0.006762498298730683</v>
+        <v>0.0007418500993300801</v>
       </c>
       <c r="T3">
-        <v>0.006762498298730683</v>
+        <v>0.0008900227833185053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>25.0474994819281</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H4">
-        <v>25.0474994819281</v>
+        <v>0.344416</v>
       </c>
       <c r="I4">
-        <v>0.3811727668903667</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J4">
-        <v>0.3811727668903667</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.28525461605507</v>
+        <v>0.010251</v>
       </c>
       <c r="N4">
-        <v>7.28525461605507</v>
+        <v>0.030753</v>
       </c>
       <c r="O4">
-        <v>0.4907366137659186</v>
+        <v>0.0006438774567181733</v>
       </c>
       <c r="P4">
-        <v>0.4907366137659186</v>
+        <v>0.0007680751282522873</v>
       </c>
       <c r="Q4">
-        <v>182.4774112213537</v>
+        <v>0.001176869472</v>
       </c>
       <c r="R4">
-        <v>182.4774112213537</v>
+        <v>0.010591825248</v>
       </c>
       <c r="S4">
-        <v>0.1870554328835644</v>
+        <v>9.44875767099785E-07</v>
       </c>
       <c r="T4">
-        <v>0.1870554328835644</v>
+        <v>1.133599578787924E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>25.0474994819281</v>
+        <v>0.1148053333333333</v>
       </c>
       <c r="H5">
-        <v>25.0474994819281</v>
+        <v>0.344416</v>
       </c>
       <c r="I5">
-        <v>0.3811727668903667</v>
+        <v>0.001467477634511064</v>
       </c>
       <c r="J5">
-        <v>0.3811727668903667</v>
+        <v>0.001475896741204689</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.56029473097233</v>
+        <v>7.723141999999999</v>
       </c>
       <c r="N5">
-        <v>7.56029473097233</v>
+        <v>15.446284</v>
       </c>
       <c r="O5">
-        <v>0.5092633862340814</v>
+        <v>0.48509970040321</v>
       </c>
       <c r="P5">
-        <v>0.5092633862340814</v>
+        <v>0.3857804625344276</v>
       </c>
       <c r="Q5">
-        <v>189.3664783572532</v>
+        <v>0.8866578916906666</v>
       </c>
       <c r="R5">
-        <v>189.3664783572532</v>
+        <v>5.319947350143999</v>
       </c>
       <c r="S5">
-        <v>0.1941173340068023</v>
+        <v>0.0007118729608497285</v>
       </c>
       <c r="T5">
-        <v>0.1941173340068023</v>
+        <v>0.0005693721274749992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.656137263289</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H6">
-        <v>38.656137263289</v>
+        <v>3.291067</v>
       </c>
       <c r="I6">
-        <v>0.5882689730594789</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J6">
-        <v>0.5882689730594789</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.28525461605507</v>
+        <v>0.138973</v>
       </c>
       <c r="N6">
-        <v>7.28525461605507</v>
+        <v>0.416919</v>
       </c>
       <c r="O6">
-        <v>0.4907366137659186</v>
+        <v>0.008729058803286966</v>
       </c>
       <c r="P6">
-        <v>0.4907366137659186</v>
+        <v>0.0104128089745981</v>
       </c>
       <c r="Q6">
-        <v>281.6198024362346</v>
+        <v>0.1524564847303333</v>
       </c>
       <c r="R6">
-        <v>281.6198024362346</v>
+        <v>1.372108362573</v>
       </c>
       <c r="S6">
-        <v>0.2886851238227631</v>
+        <v>0.0001224030713568466</v>
       </c>
       <c r="T6">
-        <v>0.2886851238227631</v>
+        <v>0.0001468511257923032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.656137263289</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H7">
-        <v>38.656137263289</v>
+        <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.5882689730594789</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J7">
-        <v>0.5882689730594789</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.56029473097233</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N7">
-        <v>7.56029473097233</v>
+        <v>24.145096</v>
       </c>
       <c r="O7">
-        <v>0.5092633862340814</v>
+        <v>0.5055273633367848</v>
       </c>
       <c r="P7">
-        <v>0.5092633862340814</v>
+        <v>0.6030386533627221</v>
       </c>
       <c r="Q7">
-        <v>292.251790871387</v>
+        <v>8.829236517492445</v>
       </c>
       <c r="R7">
-        <v>292.251790871387</v>
+        <v>79.46312865743201</v>
       </c>
       <c r="S7">
-        <v>0.2995838492367158</v>
+        <v>0.007088748434602193</v>
       </c>
       <c r="T7">
-        <v>0.2995838492367158</v>
+        <v>0.008504612478594733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13545036994005</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H8">
-        <v>1.13545036994005</v>
+        <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.01727928009296931</v>
+        <v>0.01402248216162264</v>
       </c>
       <c r="J8">
-        <v>0.01727928009296931</v>
+        <v>0.01410293093348245</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.28525461605507</v>
+        <v>0.010251</v>
       </c>
       <c r="N8">
-        <v>7.28525461605507</v>
+        <v>0.030753</v>
       </c>
       <c r="O8">
-        <v>0.4907366137659186</v>
+        <v>0.0006438774567181733</v>
       </c>
       <c r="P8">
-        <v>0.4907366137659186</v>
+        <v>0.0007680751282522873</v>
       </c>
       <c r="Q8">
-        <v>8.272045048907186</v>
+        <v>0.011245575939</v>
       </c>
       <c r="R8">
-        <v>8.272045048907186</v>
+        <v>0.101210183451</v>
       </c>
       <c r="S8">
-        <v>0.008479575401136604</v>
+        <v>9.02876015110154E-06</v>
       </c>
       <c r="T8">
-        <v>0.008479575401136604</v>
+        <v>1.083211048546768E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.097022333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.291067</v>
+      </c>
+      <c r="I9">
+        <v>0.01402248216162264</v>
+      </c>
+      <c r="J9">
+        <v>0.01410293093348245</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.723141999999999</v>
+      </c>
+      <c r="N9">
+        <v>15.446284</v>
+      </c>
+      <c r="O9">
+        <v>0.48509970040321</v>
+      </c>
+      <c r="P9">
+        <v>0.3857804625344276</v>
+      </c>
+      <c r="Q9">
+        <v>8.472459257504665</v>
+      </c>
+      <c r="R9">
+        <v>50.834755545028</v>
+      </c>
+      <c r="S9">
+        <v>0.0068023018955125</v>
+      </c>
+      <c r="T9">
+        <v>0.005440635218609946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.088399</v>
+      </c>
+      <c r="H10">
+        <v>87.265197</v>
+      </c>
+      <c r="I10">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="J10">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.138973</v>
+      </c>
+      <c r="N10">
+        <v>0.416919</v>
+      </c>
+      <c r="O10">
+        <v>0.008729058803286966</v>
+      </c>
+      <c r="P10">
+        <v>0.0104128089745981</v>
+      </c>
+      <c r="Q10">
+        <v>4.042502074226999</v>
+      </c>
+      <c r="R10">
+        <v>36.382518668043</v>
+      </c>
+      <c r="S10">
+        <v>0.003245612482322685</v>
+      </c>
+      <c r="T10">
+        <v>0.003893871629455468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.088399</v>
+      </c>
+      <c r="H11">
+        <v>87.265197</v>
+      </c>
+      <c r="I11">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="J11">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.048365333333335</v>
+      </c>
+      <c r="N11">
+        <v>24.145096</v>
+      </c>
+      <c r="O11">
+        <v>0.5055273633367848</v>
+      </c>
+      <c r="P11">
+        <v>0.6030386533627221</v>
+      </c>
+      <c r="Q11">
+        <v>234.114062113768</v>
+      </c>
+      <c r="R11">
+        <v>2107.026559023912</v>
+      </c>
+      <c r="S11">
+        <v>0.1879636691167339</v>
+      </c>
+      <c r="T11">
+        <v>0.2255064036536563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.088399</v>
+      </c>
+      <c r="H12">
+        <v>87.265197</v>
+      </c>
+      <c r="I12">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="J12">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.010251</v>
+      </c>
+      <c r="N12">
+        <v>0.030753</v>
+      </c>
+      <c r="O12">
+        <v>0.0006438774567181733</v>
+      </c>
+      <c r="P12">
+        <v>0.0007680751282522873</v>
+      </c>
+      <c r="Q12">
+        <v>0.298185178149</v>
+      </c>
+      <c r="R12">
+        <v>2.683666603341</v>
+      </c>
+      <c r="S12">
+        <v>0.0002394045861878915</v>
+      </c>
+      <c r="T12">
+        <v>0.0002872218205949933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.088399</v>
+      </c>
+      <c r="H13">
+        <v>87.265197</v>
+      </c>
+      <c r="I13">
+        <v>0.3718170028938899</v>
+      </c>
+      <c r="J13">
+        <v>0.3739501645477712</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.723141999999999</v>
+      </c>
+      <c r="N13">
+        <v>15.446284</v>
+      </c>
+      <c r="O13">
+        <v>0.48509970040321</v>
+      </c>
+      <c r="P13">
+        <v>0.3857804625344276</v>
+      </c>
+      <c r="Q13">
+        <v>224.653836029658</v>
+      </c>
+      <c r="R13">
+        <v>1347.923016177948</v>
+      </c>
+      <c r="S13">
+        <v>0.1803683167086455</v>
+      </c>
+      <c r="T13">
+        <v>0.1442626674440645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H14">
+        <v>139.782181</v>
+      </c>
+      <c r="I14">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J14">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138973</v>
+      </c>
+      <c r="N14">
+        <v>0.416919</v>
+      </c>
+      <c r="O14">
+        <v>0.008729058803286966</v>
+      </c>
+      <c r="P14">
+        <v>0.0104128089745981</v>
+      </c>
+      <c r="Q14">
+        <v>6.475316346704333</v>
+      </c>
+      <c r="R14">
+        <v>58.277847120339</v>
+      </c>
+      <c r="S14">
+        <v>0.005198851398454861</v>
+      </c>
+      <c r="T14">
+        <v>0.006237238757385825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H15">
+        <v>139.782181</v>
+      </c>
+      <c r="I15">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J15">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.048365333333335</v>
+      </c>
+      <c r="N15">
+        <v>24.145096</v>
+      </c>
+      <c r="O15">
+        <v>0.5055273633367848</v>
+      </c>
+      <c r="P15">
+        <v>0.6030386533627221</v>
+      </c>
+      <c r="Q15">
+        <v>375.0060199260419</v>
+      </c>
+      <c r="R15">
+        <v>3375.054179334376</v>
+      </c>
+      <c r="S15">
+        <v>0.3010819034522939</v>
+      </c>
+      <c r="T15">
+        <v>0.3612181948340121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H16">
+        <v>139.782181</v>
+      </c>
+      <c r="I16">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J16">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.010251</v>
+      </c>
+      <c r="N16">
+        <v>0.030753</v>
+      </c>
+      <c r="O16">
+        <v>0.0006438774567181733</v>
+      </c>
+      <c r="P16">
+        <v>0.0007680751282522873</v>
+      </c>
+      <c r="Q16">
+        <v>0.477635712477</v>
+      </c>
+      <c r="R16">
+        <v>4.298721412293</v>
+      </c>
+      <c r="S16">
+        <v>0.0003834804291881214</v>
+      </c>
+      <c r="T16">
+        <v>0.0004600745072925107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="H9">
-        <v>1.13545036994005</v>
-      </c>
-      <c r="I9">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="J9">
-        <v>0.01727928009296931</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.56029473097233</v>
-      </c>
-      <c r="N9">
-        <v>7.56029473097233</v>
-      </c>
-      <c r="O9">
-        <v>0.5092633862340814</v>
-      </c>
-      <c r="P9">
-        <v>0.5092633862340814</v>
-      </c>
-      <c r="Q9">
-        <v>8.584339449138342</v>
-      </c>
-      <c r="R9">
-        <v>8.584339449138342</v>
-      </c>
-      <c r="S9">
-        <v>0.008799704691832702</v>
-      </c>
-      <c r="T9">
-        <v>0.008799704691832702</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>46.59406033333334</v>
+      </c>
+      <c r="H17">
+        <v>139.782181</v>
+      </c>
+      <c r="I17">
+        <v>0.5955798346205676</v>
+      </c>
+      <c r="J17">
+        <v>0.5989967522309764</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.723141999999999</v>
+      </c>
+      <c r="N17">
+        <v>15.446284</v>
+      </c>
+      <c r="O17">
+        <v>0.48509970040321</v>
+      </c>
+      <c r="P17">
+        <v>0.3857804625344276</v>
+      </c>
+      <c r="Q17">
+        <v>359.8525443109007</v>
+      </c>
+      <c r="R17">
+        <v>2159.115265865404</v>
+      </c>
+      <c r="S17">
+        <v>0.2889155993406307</v>
+      </c>
+      <c r="T17">
+        <v>0.231081244132286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.338819</v>
+      </c>
+      <c r="H18">
+        <v>2.677638</v>
+      </c>
+      <c r="I18">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J18">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.138973</v>
+      </c>
+      <c r="N18">
+        <v>0.416919</v>
+      </c>
+      <c r="O18">
+        <v>0.008729058803286966</v>
+      </c>
+      <c r="P18">
+        <v>0.0104128089745981</v>
+      </c>
+      <c r="Q18">
+        <v>0.186059692887</v>
+      </c>
+      <c r="R18">
+        <v>1.116358157322</v>
+      </c>
+      <c r="S18">
+        <v>0.0001493821525884176</v>
+      </c>
+      <c r="T18">
+        <v>0.0001194792311321073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.338819</v>
+      </c>
+      <c r="H19">
+        <v>2.677638</v>
+      </c>
+      <c r="I19">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J19">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.048365333333335</v>
+      </c>
+      <c r="N19">
+        <v>24.145096</v>
+      </c>
+      <c r="O19">
+        <v>0.5055273633367848</v>
+      </c>
+      <c r="P19">
+        <v>0.6030386533627221</v>
+      </c>
+      <c r="Q19">
+        <v>10.775304427208</v>
+      </c>
+      <c r="R19">
+        <v>64.65182656324801</v>
+      </c>
+      <c r="S19">
+        <v>0.008651192233824781</v>
+      </c>
+      <c r="T19">
+        <v>0.006919419613140494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.338819</v>
+      </c>
+      <c r="H20">
+        <v>2.677638</v>
+      </c>
+      <c r="I20">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J20">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.010251</v>
+      </c>
+      <c r="N20">
+        <v>0.030753</v>
+      </c>
+      <c r="O20">
+        <v>0.0006438774567181733</v>
+      </c>
+      <c r="P20">
+        <v>0.0007680751282522873</v>
+      </c>
+      <c r="Q20">
+        <v>0.013724233569</v>
+      </c>
+      <c r="R20">
+        <v>0.082345401414</v>
+      </c>
+      <c r="S20">
+        <v>1.101880542395911E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.813090300527674E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.338819</v>
+      </c>
+      <c r="H21">
+        <v>2.677638</v>
+      </c>
+      <c r="I21">
+        <v>0.01711320268940875</v>
+      </c>
+      <c r="J21">
+        <v>0.01147425554656532</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.723141999999999</v>
+      </c>
+      <c r="N21">
+        <v>15.446284</v>
+      </c>
+      <c r="O21">
+        <v>0.48509970040321</v>
+      </c>
+      <c r="P21">
+        <v>0.3857804625344276</v>
+      </c>
+      <c r="Q21">
+        <v>10.339889249298</v>
+      </c>
+      <c r="R21">
+        <v>41.35955699719199</v>
+      </c>
+      <c r="S21">
+        <v>0.008301609497571593</v>
+      </c>
+      <c r="T21">
+        <v>0.004426543611992189</v>
       </c>
     </row>
   </sheetData>
